--- a/Documentos/Presupuesto.xlsx
+++ b/Documentos/Presupuesto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JAVERIANA\VII\GRAN ESCALA\Módulo Restaurante\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C5B34-035E-47EA-BF81-A03AA2779997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997EAF1-191A-47A2-B1E0-BEA9199145A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Presupuesto</t>
   </si>
@@ -176,6 +176,9 @@
   <si>
     <t>Prototipo EatMe</t>
   </si>
+  <si>
+    <t>MES 1</t>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,6 +373,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -703,7 +708,9 @@
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="26" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -863,6 +870,13 @@
         <f>(F9+G9)/5</f>
         <v>1000000</v>
       </c>
+      <c r="J9" s="25">
+        <f>E9+E16+E19+E10+E15+E14+E13+E18+E17+(E11*3)</f>
+        <v>35564200</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
